--- a/Airport_Notes.xlsx
+++ b/Airport_Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsmythe/Projects/MakersProjects/airport_challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088E170-10E5-7F48-8269-6FFF2A041EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A223E-7C44-0847-BC13-97695DB64B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14360" yWindow="2600" windowWidth="28040" windowHeight="17440" xr2:uid="{B4246EDD-F5A3-0F4A-8071-1CA2A301C89D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Nouns</t>
   </si>
@@ -76,6 +76,30 @@
   </si>
   <si>
     <t xml:space="preserve">I want to prevent landing when weather is stormy </t>
+  </si>
+  <si>
+    <t>Plane</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Take Off</t>
+  </si>
+  <si>
+    <t>Aiport</t>
+  </si>
+  <si>
+    <t>Change capacity</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Forecast</t>
   </si>
 </sst>
 </file>
@@ -427,110 +451,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8960880E-73A2-F44E-9C2D-3D48C21E102A}">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="82.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
